--- a/設計書/ロバストネス図/ロバストネス図(ユーザー).xlsx
+++ b/設計書/ロバストネス図/ロバストネス図(ユーザー).xlsx
@@ -77,9 +77,9 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ロバストネス図(ユーザー)</t>
-    <rPh sb="6" eb="7">
-      <t>ズ</t>
+    <t>機能名</t>
+    <rPh sb="0" eb="3">
+      <t>キノウメイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -357,10 +357,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
